--- a/cbrunner/Parameters/Data_Sources.xlsx
+++ b/cbrunner/Parameters/Data_Sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C3A8D9-BDC8-42FF-A636-FE2A1BB58252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3A7850-E9DD-4C5B-A2A1-624C264A1EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="14616" xr2:uid="{5E55FEDC-EEAF-4263-A1FF-FFFB8EAE3397}"/>
   </bookViews>
@@ -651,19 +651,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E269FF7-C4F2-4A6A-8BEB-E020381C4873}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" customWidth="1"/>
-    <col min="3" max="3" width="65.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -686,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
@@ -702,7 +702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -710,7 +710,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -718,7 +718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
@@ -726,7 +726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
@@ -745,7 +745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
@@ -762,7 +762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
@@ -771,7 +771,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>14</v>
@@ -780,7 +780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -789,7 +789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>14</v>
@@ -798,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>31</v>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
@@ -816,7 +816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -825,7 +825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>18</v>
@@ -834,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>20</v>
@@ -843,7 +843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>20</v>
@@ -852,7 +852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>23</v>
@@ -870,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
@@ -879,7 +879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -888,7 +888,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>28</v>
@@ -897,7 +897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>28</v>
@@ -906,7 +906,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
@@ -915,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>31</v>
@@ -924,7 +924,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>34</v>
@@ -933,7 +933,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>36</v>
@@ -942,7 +942,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>36</v>
@@ -951,7 +951,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>39</v>
       </c>
@@ -959,7 +959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
@@ -970,7 +970,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>25</v>
@@ -979,7 +979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>25</v>
       </c>
@@ -987,7 +987,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>6</v>
       </c>
@@ -998,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>25</v>
@@ -1007,7 +1007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>25</v>
@@ -1016,7 +1016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>25</v>
@@ -1025,7 +1025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>25</v>
@@ -1034,7 +1034,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>25</v>
@@ -1043,7 +1043,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>49</v>
@@ -1072,7 +1072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>49</v>
@@ -1081,7 +1081,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
         <v>49</v>
@@ -1090,7 +1090,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>36</v>
@@ -1099,7 +1099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>36</v>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>36</v>
@@ -1117,7 +1117,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>36</v>
@@ -1126,7 +1126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>25</v>
@@ -1146,7 +1146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>25</v>
@@ -1155,7 +1155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>25</v>
@@ -1164,7 +1164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>25</v>
@@ -1173,7 +1173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
@@ -1182,7 +1182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>25</v>
@@ -1191,7 +1191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="2:3" ht="15" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
     </row>
